--- a/tests/testthat/_output_excel_snaps/xlr_table_to_workbook.xlsx
+++ b/tests/testthat/_output_excel_snaps/xlr_table_to_workbook.xlsx
@@ -829,6 +829,19 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="34" t="s">
@@ -2014,6 +2027,19 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="46" t="s">
@@ -3204,6 +3230,19 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="46" t="s">
